--- a/biology/Biochimie/Acide_2-phosphoglycérique/Acide_2-phosphoglycérique.xlsx
+++ b/biology/Biochimie/Acide_2-phosphoglycérique/Acide_2-phosphoglycérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_2-phosphoglyc%C3%A9rique</t>
+          <t>Acide_2-phosphoglycérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’acide 2-phosphoglycérique — ou 2-phosphoglycérate sous forme déprotonée, abrégée en 2PG — est un composé organique important en biochimie. Seul l'énantiomère 2-phospho-D-glycérate est biologiquement actif. Il intervient comme métabolite de la glycolyse en relation avec la chaîne respiratoire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_2-phosphoglyc%C3%A9rique</t>
+          <t>Acide_2-phosphoglycérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,80 @@
           <t>Rôle dans la glycolyse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Biosynthèse
-Le 3-phospho-D-glycérate (3PG) produit au cours de la glycolyse est isomérisé en 2-phospho-D-glycérate (2PG) par la phosphoglycérate mutase.
-Dégradation
-Le 2-phospho-D-glycérate est ensuite déshydraté par une lyase, l’énolase (ou phosphopyruvate hydratase), pour former le phosphoénolpyruvate (PEP). Un cation Mg2+ est requis comme « catalyseur » de la réaction de déshydratation, tandis qu'un second Mg2+ intervient avec un rôle « conformationnel » en coordination avec le groupe carboxyle du 2PG.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Acide_2-phosphoglycérique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_2-phosphoglyc%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Rôle dans la glycolyse</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Biosynthèse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3-phospho-D-glycérate (3PG) produit au cours de la glycolyse est isomérisé en 2-phospho-D-glycérate (2PG) par la phosphoglycérate mutase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acide_2-phosphoglycérique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acide_2-phosphoglyc%C3%A9rique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rôle dans la glycolyse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dégradation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2-phospho-D-glycérate est ensuite déshydraté par une lyase, l’énolase (ou phosphopyruvate hydratase), pour former le phosphoénolpyruvate (PEP). Un cation Mg2+ est requis comme « catalyseur » de la réaction de déshydratation, tandis qu'un second Mg2+ intervient avec un rôle « conformationnel » en coordination avec le groupe carboxyle du 2PG.
 </t>
         </is>
       </c>
